--- a/bootstrap/template/template-data-siswa.xlsx
+++ b/bootstrap/template/template-data-siswa.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$7</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>NO</t>
   </si>
@@ -56,22 +59,22 @@
     <t>AYAH</t>
   </si>
   <si>
-    <t>IBU</t>
-  </si>
-  <si>
     <t>NILAI RATA-RATA</t>
   </si>
   <si>
     <t>STATUS ORANG TUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REKAP DATA SISWA PENERIMA BEASISWA </t>
+  </si>
+  <si>
+    <t>SEKOLAH MENENGAH PERTAMA NEGERI 7 PADANG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,13 +105,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -122,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -159,19 +164,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -202,46 +194,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -524,10 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="A8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,113 +517,98 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="2"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="9">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>